--- a/config_11.24/fish_3d_yutu_random_2.xlsx
+++ b/config_11.24/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -308,22 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>107,108,109,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,111,112,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113,114,115,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>|描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +361,22 @@
   </si>
   <si>
     <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,125,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123,124,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,122,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117,118,119,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +460,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -494,7 +500,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -518,12 +524,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1081,25 +1106,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="74.875" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
-    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>75</v>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>41</v>
@@ -1116,127 +1141,127 @@
       <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1500</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1800</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>3000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>3300</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>4500</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>4800</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>180</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>220</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>180</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>220</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D7">
@@ -1250,13 +1275,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D8">
@@ -1270,115 +1295,115 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="10">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10">
+        <v>40</v>
+      </c>
+      <c r="E10" s="10">
         <v>80</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="11">
-        <v>20</v>
-      </c>
-      <c r="E9" s="11">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="G10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="10">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <v>100</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="10">
+        <v>280</v>
+      </c>
+      <c r="E12" s="10">
+        <v>300</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="11">
-        <v>40</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10">
+        <v>300</v>
+      </c>
+      <c r="E13" s="10">
+        <v>500</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="11">
-        <v>50</v>
-      </c>
-      <c r="E11" s="11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="11">
-        <v>280</v>
-      </c>
-      <c r="E12" s="11">
-        <v>300</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="11">
-        <v>300</v>
-      </c>
-      <c r="E13" s="11">
-        <v>500</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>82</v>
+      <c r="B14" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -1389,7 +1414,7 @@
       <c r="E14">
         <v>700</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1404,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1613,96 +1638,102 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="6">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="C9" s="12">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="6">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="C10" s="12">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="C11" s="12">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="12">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1601913599</v>
+      <c r="F12" s="13">
+        <v>50</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1606751999</v>
       </c>
     </row>
   </sheetData>
@@ -1901,23 +1932,23 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1934,7 +1965,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1947,166 +1978,166 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28"/>
+      <c r="B28" s="19"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29"/>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30"/>
+      <c r="B30" s="19"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31"/>
+      <c r="B31" s="19"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36"/>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37"/>
+      <c r="B37" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_11.24/fish_3d_yutu_random_2.xlsx
+++ b/config_11.24/fish_3d_yutu_random_2.xlsx
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1726,9 +1726,7 @@
       <c r="E12" s="12">
         <v>5</v>
       </c>
-      <c r="F12" s="13">
-        <v>50</v>
-      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="13">
         <v>1606176000</v>
       </c>
